--- a/input/点赞链接.xlsx
+++ b/input/点赞链接.xlsx
@@ -418,7 +418,7 @@
     <row r="2" ht="25.5" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」
+          <t>【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」
 点击链接直接打开</t>
         </is>
       </c>
@@ -427,46 +427,73 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>飞书用户7318AZ</t>
+          <t>小玉</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1   【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」点击链接直接打开</t>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开</t>
         </is>
       </c>
       <c r="E2" s="2">
-        <v>46015.656539351854</v>
+        <v>46016.801041666666</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1   【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」点击链接直接打开
-2   【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」点击链接直接打开
-3   【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」点击链接直接打开
-4   【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」点击链接直接打开
-5   【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」点击链接直接打开
-6   【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」点击链接直接打开
-7   【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」点击链接直接打开
-8   【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」点击链接直接打开
-9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -476,27 +503,26 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」点击链接直接打开</t>
+          <t>【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L2"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>当前13人参加群接龙，仅展示最新的5条</t>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
         </is>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」
-点击链接直接打开
-</t>
+          <t>【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」
+点击链接直接打开</t>
         </is>
       </c>
       <c r="B3">
@@ -504,46 +530,73 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>用户711049</t>
+          <t>飞书用户4853UF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2   【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」点击链接直接打开</t>
+          <t>2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开</t>
         </is>
       </c>
       <c r="E3" s="2">
-        <v>46015.657534722224</v>
+        <v>46016.82020833333</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1   【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」点击链接直接打开
-2   【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」点击链接直接打开
-3   【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」点击链接直接打开
-4   【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」点击链接直接打开
-5   【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」点击链接直接打开
-6   【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」点击链接直接打开
-7   【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」点击链接直接打开
-8   【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」点击链接直接打开
-9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -553,26 +606,26 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」点击链接直接打开</t>
+          <t>【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L3"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>当前13人参加群接龙，仅展示最新的5条</t>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
         </is>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」
-点击链接直接打开</t>
+          <t>【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」
+点击链接直接打开     点过的点其它品</t>
         </is>
       </c>
       <c r="B4">
@@ -580,46 +633,73 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>用户826209</t>
+          <t>用户418669</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3   【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」点击链接直接打开</t>
+          <t>3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品</t>
         </is>
       </c>
       <c r="E4" s="2">
-        <v>46015.66171296296</v>
+        <v>46016.821122685185</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1   【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」点击链接直接打开
-2   【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」点击链接直接打开
-3   【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」点击链接直接打开
-4   【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」点击链接直接打开
-5   【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」点击链接直接打开
-6   【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」点击链接直接打开
-7   【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」点击链接直接打开
-8   【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」点击链接直接打开
-9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -629,25 +709,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」点击链接直接打开</t>
+          <t>【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L4"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>当前13人参加群接龙，仅展示最新的5条</t>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
         </is>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」
+          <t>【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」
 点击链接直接打开</t>
         </is>
       </c>
@@ -656,46 +736,73 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>张不二</t>
+          <t>赵晓婷</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4   【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」点击链接直接打开</t>
+          <t>4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开</t>
         </is>
       </c>
       <c r="E5" s="2">
-        <v>46015.66541666666</v>
+        <v>46016.82336805556</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1   【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」点击链接直接打开
-2   【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」点击链接直接打开
-3   【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」点击链接直接打开
-4   【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」点击链接直接打开
-5   【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」点击链接直接打开
-6   【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」点击链接直接打开
-7   【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」点击链接直接打开
-8   【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」点击链接直接打开
-9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -705,25 +812,25 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」点击链接直接打开</t>
+          <t>【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L5"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>当前13人参加群接龙，仅展示最新的5条</t>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
         </is>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」
+          <t>【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」
 点击链接直接打开</t>
         </is>
       </c>
@@ -732,46 +839,73 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>用户147912</t>
+          <t>用户536366</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5   【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」点击链接直接打开</t>
+          <t>5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开</t>
         </is>
       </c>
       <c r="E6" s="2">
-        <v>46015.68560185185</v>
+        <v>46016.840532407405</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1   【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」点击链接直接打开
-2   【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」点击链接直接打开
-3   【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」点击链接直接打开
-4   【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」点击链接直接打开
-5   【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」点击链接直接打开
-6   【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」点击链接直接打开
-7   【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」点击链接直接打开
-8   【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」点击链接直接打开
-9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -781,25 +915,25 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」点击链接直接打开</t>
+          <t>【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L6"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>当前13人参加群接龙，仅展示最新的5条</t>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
         </is>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」
+          <t>【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」
 点击链接直接打开</t>
         </is>
       </c>
@@ -808,46 +942,73 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>毛洋</t>
+          <t>用户650870</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6   【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」点击链接直接打开</t>
+          <t>6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开</t>
         </is>
       </c>
       <c r="E7" s="2">
-        <v>46015.69023148148</v>
+        <v>46016.841458333336</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1   【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」点击链接直接打开
-2   【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」点击链接直接打开
-3   【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」点击链接直接打开
-4   【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」点击链接直接打开
-5   【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」点击链接直接打开
-6   【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」点击链接直接打开
-7   【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」点击链接直接打开
-8   【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」点击链接直接打开
-9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -857,25 +1018,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」点击链接直接打开</t>
+          <t>【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L7"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>当前13人参加群接龙，仅展示最新的5条</t>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
         </is>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」
+          <t>【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」
 点击链接直接打开</t>
         </is>
       </c>
@@ -884,46 +1045,73 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>飞书用户0537JF</t>
+          <t>小玉</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7   【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」点击链接直接打开</t>
+          <t>7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开</t>
         </is>
       </c>
       <c r="E8" s="2">
-        <v>46015.69804398148</v>
+        <v>46016.84179398148</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1   【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」点击链接直接打开
-2   【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」点击链接直接打开
-3   【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」点击链接直接打开
-4   【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」点击链接直接打开
-5   【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」点击链接直接打开
-6   【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」点击链接直接打开
-7   【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」点击链接直接打开
-8   【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」点击链接直接打开
-9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,25 +1121,25 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」点击链接直接打开</t>
+          <t>【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L8"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>当前13人参加群接龙，仅展示最新的5条</t>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
         </is>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」
+          <t>【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」
 点击链接直接打开</t>
         </is>
       </c>
@@ -960,46 +1148,73 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>庞致远</t>
+          <t>小玉</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8   【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」点击链接直接打开</t>
+          <t>8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开</t>
         </is>
       </c>
       <c r="E9" s="2">
-        <v>46015.698483796295</v>
+        <v>46016.84431712963</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1   【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」点击链接直接打开
-2   【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」点击链接直接打开
-3   【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」点击链接直接打开
-4   【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」点击链接直接打开
-5   【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」点击链接直接打开
-6   【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」点击链接直接打开
-7   【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」点击链接直接打开
-8   【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」点击链接直接打开
-9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1009,25 +1224,25 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」点击链接直接打开</t>
+          <t>【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L9"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>当前13人参加群接龙，仅展示最新的5条</t>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
         </is>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」
+          <t>【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」
 点击链接直接打开</t>
         </is>
       </c>
@@ -1036,46 +1251,73 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>用户406055</t>
+          <t>盛前进</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开</t>
+          <t>9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开</t>
         </is>
       </c>
       <c r="E10" s="2">
-        <v>46015.69974537037</v>
+        <v>46016.846342592595</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1   【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」点击链接直接打开
-2   【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」点击链接直接打开
-3   【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」点击链接直接打开
-4   【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」点击链接直接打开
-5   【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」点击链接直接打开
-6   【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」点击链接直接打开
-7   【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」点击链接直接打开
-8   【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」点击链接直接打开
-9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1085,25 +1327,25 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开</t>
+          <t>【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L10"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>当前13人参加群接龙，仅展示最新的5条</t>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
         </is>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」
+          <t>【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」
 点击链接直接打开</t>
         </is>
       </c>
@@ -1112,46 +1354,73 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>飞书用户5173WD</t>
+          <t>黄斌</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开</t>
+          <t>10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开</t>
         </is>
       </c>
       <c r="E11" s="2">
-        <v>46015.70829861111</v>
+        <v>46016.847719907404</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1   【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」点击链接直接打开
-2   【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」点击链接直接打开
-3   【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」点击链接直接打开
-4   【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」点击链接直接打开
-5   【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」点击链接直接打开
-6   【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」点击链接直接打开
-7   【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」点击链接直接打开
-8   【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」点击链接直接打开
-9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1161,25 +1430,25 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开</t>
+          <t>【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L11"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>当前13人参加群接龙，仅展示最新的5条</t>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
         </is>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」
+          <t>【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」
 点击链接直接打开</t>
         </is>
       </c>
@@ -1188,46 +1457,73 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>飞书用户0515AX</t>
+          <t>用户598499</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开</t>
+          <t>11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开</t>
         </is>
       </c>
       <c r="E12" s="2">
-        <v>46015.70899305555</v>
+        <v>46016.88045138889</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1   【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」点击链接直接打开
-2   【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」点击链接直接打开
-3   【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」点击链接直接打开
-4   【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」点击链接直接打开
-5   【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」点击链接直接打开
-6   【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」点击链接直接打开
-7   【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」点击链接直接打开
-8   【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」点击链接直接打开
-9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1237,25 +1533,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开</t>
+          <t>【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L12"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>当前13人参加群接龙，仅展示最新的5条</t>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
         </is>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」
+          <t>【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」
 点击链接直接打开</t>
         </is>
       </c>
@@ -1264,46 +1560,73 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>飞书用户2798SA</t>
+          <t>用户598499</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开</t>
+          <t>12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开</t>
         </is>
       </c>
       <c r="E13" s="2">
-        <v>46015.709282407406</v>
+        <v>46016.88070601852</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1   【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」点击链接直接打开
-2   【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」点击链接直接打开
-3   【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」点击链接直接打开
-4   【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」点击链接直接打开
-5   【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」点击链接直接打开
-6   【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」点击链接直接打开
-7   【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」点击链接直接打开
-8   【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」点击链接直接打开
-9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1313,25 +1636,25 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开</t>
+          <t>【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L13"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>当前13人参加群接龙，仅展示最新的5条</t>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
         </is>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」
+          <t>【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」
 点击链接直接打开</t>
         </is>
       </c>
@@ -1340,73 +1663,2894 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>用户674061</t>
+          <t>飞书用户2797UW</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开</t>
         </is>
       </c>
       <c r="E14" s="2">
-        <v>46015.72211805556</v>
+        <v>46016.88444444445</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1   【闲鱼】https://m.tb.cn/h.7f4t24a?tk=bRjofCkIkpM HU071 「我在闲鱼发布了【【全新包邮】3.6L电煮锅不沾内胆电火锅大容量蒸笼一体锅早餐】」点击链接直接打开
-2   【闲鱼】https://m.tb.cn/h.7f4uiFv?tk=AUfkfCkGQcF HU006 「我在闲鱼发布了【【现货清仓】 全新R36S开源掌机重磅登场！3.5寸IPS高】」点击链接直接打开
-3   【闲鱼】https://m.tb.cn/h.74G9osQ?tk=xZjgfCPZd7C HU006 「我在闲鱼发布了【年底清仓小霸王游戏机双人手柄电视游戏机街机8090后怀旧 W】」点击链接直接打开
-4   【闲鱼】https://m.tb.cn/h.7fNajW6?tk=yZfxfCP314Z CZ225 「我在闲鱼发布了【【哈曼卡顿4代】华强北复刻版彩灯蓝牙音响 HIFI重低音炮】」点击链接直接打开
-5   【闲鱼】https://m.tb.cn/h.7fUgV6U?tk=EvaZfCl5MK5 CZ009 「我在闲鱼发布了【加湿器usb充电山水家用大雾量香薰氛围空气净化器迷你无线加湿】」点击链接直接打开
-6   【闲鱼】https://m.tb.cn/h.7fn6M1V?tk=0QQmfClPyy1 HU071 「我在闲鱼发布了【【正品包邮】米家无雾加湿器3家用卧室静音空调房空气加湿大容量】」点击链接直接打开
-7   【闲鱼】https://m.tb.cn/h.7fUBnId?tk=z3gRfClzmu4 CZ009 「我在闲鱼发布了【【大疆pocket3硬壳收纳包】全新，外观干净，轻微使用痕迹】」点击链接直接打开
-8   【闲鱼】https://m.tb.cn/h.74FQLQ5?tk=IGwffClDOrB HU071 「我在闲鱼发布了【UWANT友望扫地僧旗舰吸尘器｜0缠毛自清洁 1799破价】」点击链接直接打开
-9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9   【闲鱼】https://m.tb.cn/h.74FpT9B?tk=O6iffCOcgeY CZ007 「我在闲鱼发布了【【清仓】40cm电烧烤炉 全新原始人69元包邮】」点击链接直接打开
-10   【闲鱼】https://m.tb.cn/h.7f5kFYv?tk=GPE7fCOlvWj tG-#22&gt;lD 「快来捡漏【【不正包退】善趣sqbaby保温杯高颜值公仔吸管杯便携车载水】」点击链接直接打开
-11   【闲鱼】https://m.tb.cn/h.74MOQdR?tk=g5RbfCgDIYM CZ356 「我在闲鱼发布了【［全新正品包邮］SKG F1尊享版男女专业级筋膜肌肉深层放松】」点击链接直接打开
-12   【闲鱼】https://m.tb.cn/h.7U9I6ln?tk=ffayfCONUKQ CZ057 「我在闲鱼发布了【【清仓包邮特惠】匹克专业登山骑行护目镜防风沙防紫外线墨镜徒步】」点击链接直接打开
-13   【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>【闲鱼】https://m.tb.cn/h.7Uk68AH?tk=yo9rfCmeFi1 CZ005 「我在闲鱼发布了【【家用万能电煮锅】全新26cm双层电煮锅】」点击链接直接打开</t>
+          <t>【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L14"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>当前13人参加群接龙，仅展示最新的5条</t>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="25.5" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>段仁骏</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E15" s="2">
+        <v>46016.88568287037</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L15"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>用户274980</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E16" s="2">
+        <v>46016.888657407406</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L16"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>用户496165</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E17" s="2">
+        <v>46016.895625</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L17"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="25.5" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>小玉</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E18" s="2">
+        <v>46016.89709490741</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L18"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>飞书用户9240TV</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E19" s="2">
+        <v>46016.89734953704</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L19"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="25.5" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>互点
+【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」
+点击链接直接打开
+【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」
+点击链接直接打开
+【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」
+点击链接直接打开
+【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」
+点击链接直接打开
+【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」
+点击链接直接打开
+【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>已重置</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E20" s="2">
+        <v>46016.902719907404</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L20"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>用户772774</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E21" s="2">
+        <v>46016.90418981481</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L21"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」
+点击链接直接打开     点过的换其他链接点，必回</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>用户418669</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回</t>
+        </is>
+      </c>
+      <c r="E22" s="2">
+        <v>46017.46871527778</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L22"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="25.5" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>
+点击链接直接打开【闲鱼】https://m.tb.cn/h</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>闫寒</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22   点击链接直接打开【闲鱼】https://m.tb.cn/h</t>
+        </is>
+      </c>
+      <c r="E23" s="2">
+        <v>46017.47252314815</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>点击链接直接打开【闲鱼】https://m.tb.cn/h</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L23"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>用户222986</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E24" s="2">
+        <v>46017.47729166667</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L24"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="25.5" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>杨昆</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E25" s="2">
+        <v>46017.47900462963</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L25"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>杨昆</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E26" s="2">
+        <v>46017.47938657407</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L26"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>王玥琁</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E27" s="2">
+        <v>46017.48105324074</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L27"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="25.5" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>飞书用户0690AV</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E28" s="2">
+        <v>46017.490277777775</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L28"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」
+#小程序://闲鱼/na1PBHVb7gjD4xI
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>陈尚</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E29" s="2">
+        <v>46017.49084490741</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L29"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="25.5" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」
+点击链接直接打开
+</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>用户058845</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E30" s="2">
+        <v>46017.49799768518</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L30"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>飞书用户0529FT</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E31" s="2">
+        <v>46017.51384259259</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L31"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>飞书用户0529FT</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E32" s="2">
+        <v>46017.514189814814</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L32"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="25.5" customHeight="1">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>用户415995</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E33" s="2">
+        <v>46017.5147337963</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L33"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>毛洋</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E34" s="2">
+        <v>46017.51597222222</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L34"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="25.5" customHeight="1">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>许多钱</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E35" s="2">
+        <v>46017.51956018519</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L35"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>许多钱</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E36" s="2">
+        <v>46017.52428240741</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L36"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>用户859434</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E37" s="2">
+        <v>46017.539456018516</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L37"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="25.5" customHeight="1">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>边靖</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E38" s="2">
+        <v>46017.54819444445</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L38"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>边靖</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E39" s="2">
+        <v>46017.54846064815</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L39"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="25.5" customHeight="1">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>边靖</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E40" s="2">
+        <v>46017.54865740741</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L40"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」
+点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>飞书用户7273SI</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="E41" s="2">
+        <v>46017.561064814814</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1   【闲鱼】https://m.tb.cn/h.7fpsot0?tk=ZS7BfySUm6Z CZ001 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+2   【闲鱼】https://m.tb.cn/h.7fKpM5I?tk=CjOWfy7XwGw CZ009 「我在闲鱼发布了【【一年质保】美的同款电磁炉家用一体多功能电池炉小型家用炒菜智】」点击链接直接打开
+3   【闲鱼】https://m.tb.cn/h.7fKrowk?tk=lbH7fy73OEO HU293 「我在闲鱼发布了【【跨境新款便携榨汁机】无线充电，随身带，学生党、上班族、家用】」点击链接直接打开     点过的点其它品
+4   【闲鱼】https://m.tb.cn/h.75TESRo?tk=FLbmfy75Tw3 CZ005 「快来捡漏【尾货清仓 原价800多无印良品全新水洗棉纯色四件套ins风超】」点击链接直接打开
+5   【闲鱼】https://m.tb.cn/h.7U2QMjU?tk=pyJOfyi2QfZ CA381 「我在闲鱼发布了【【健康煮饭】全新先科（XIANKE）新款5L方形电饭煲大容量】」点击链接直接打开
+6   【闲鱼】https://m.tb.cn/h.756H1YL?tk=wNR3fyidRJg CZ225 「我在闲鱼发布了【【全新包邮[火]】志高鸟笼式取暖器小太阳 | 家用小型节能速】」点击链接直接打开
+7   【闲鱼】https://m.tb.cn/h.7fqsIlz?tk=czFHfyi30LU CZ321 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+8   【闲鱼】https://m.tb.cn/h.7fqwQUD?tk=kVuvfyigtSC CZ028 「我在闲鱼发布了【【全新正品】科西吹风机HC5P高速负离子大风恒温不伤发电吹风】」点击链接直接打开
+9   【闲鱼】https://m.tb.cn/h.7U2HpVu?tk=vyOCfyijapv MF937 「我在闲鱼发布了【【全新包邮】匹克PEAK筋膜环3.0最新全系列家用甩脂机抖抖】」点击链接直接打开
+10   【闲鱼】https://m.tb.cn/h.75h1I0c?tk=2ZMBfyiPL0D HU006 「我在闲鱼发布了【【全新未拆封】华为freeclip耳夹式蓝牙耳机开放式佩戴无】」点击链接直接打开
+11   【闲鱼】https://m.tb.cn/h.7UWlYyO?tk=8Oz7fy82tWR HU926 「我在闲鱼发布了【全新万利达多功能养生壶 2L大容量】」点击链接直接打开
+12   【闲鱼】https://m.tb.cn/h.75SFV1n?tk=lvl8fy8WwrE HU591 「我在闲鱼发布了【全新荣事达电烤箱12L容量】」点击链接直接打开
+13   【闲鱼】https://m.tb.cn/h.7Uk91ws?tk=XDWLfy80EMQ MF168 「我在闲鱼发布了【空气炸锅全新家用大容量免翻面多功能智能电烤箱电炸锅全自动烘烤】」点击链接直接打开
+14   【闲鱼】https://m.tb.cn/h.7Vlm2Qc?tk=pP8nfwouD3Z HU591 「我在闲鱼发布了【【正品未拆】vtt筋膜环甩脂机筋膜枪抖抖瘦肚子懒人减肥神器全】」点击链接直接打开
+15   【闲鱼】https://m.tb.cn/h.7UkBV9v?tk=PTJHfy8lQD7 MF937 「我在闲鱼发布了【全新健身包清仓！库存不多，先到先得～】」点击链接直接打开
+16   【闲鱼】https://m.tb.cn/h.757PM1B?tk=Uupqfy8wNlm HU293 「我在闲鱼发布了【华为Mate30 5G版，8+256内存，原装的，没有拆过修】」点击链接直接打开
+17   【闲鱼】https://m.tb.cn/h.7UPSIPm?tk=jxsYfy8ytAy HU071 「我在闲鱼发布了【【全新包邮】德国OSTMARS破壁机静音全自动加热多功能家用】」点击链接直接打开
+18   【闲鱼】https://m.tb.cn/h.7U3hlM1?tk=Tv4Pfy8CCb6 CZ225 「我在闲鱼发布了【【官方卡密】讯飞听见声音转文字·时长卡，1小时音频最快5分钟】」点击链接直接打开
+19   互点【闲鱼】https://m.tb.cn/h.7fFvYiC?tk=ZVlSfy1JJKG HU006 「我在闲鱼发布了【【标价直拍】德国Ostmars破壁机PBJ-010/ 011】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fihOJn?tk=fRqVfy1r31k CZ005 「我在闲鱼发布了【【标价直拍】奥克斯空气炸锅电烤箱二合一可视触屏多功能电烤箱2】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fFwk8F?tk=brBufy1rZPj CZ225 「我在闲鱼发布了【【标价直拍】英国CeoMr三层电蒸锅 透明多功能保温电蒸笼】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fiSLdb?tk=dr38fy1rrxA MF287 「我在闲鱼发布了【【标价直拍】德国Ostmars宝宝辅食机料理机 mini电动】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7fIkvjZ?tk=epn3fy8A8Vc CZ057 「我在闲鱼发布了【【标价直拍】德国Ostmars养生壶多功能电热烧水壶大容量自】」点击链接直接打开【闲鱼】https://m.tb.cn/h.7U3R7Dj?tk=1unjfyjZazF CZ057 「我在闲鱼发布了【【标价直拍】德国OSTMARS豆浆机家用破壁机全自动2025】」点击链接直接打开
+20   【闲鱼】https://m.tb.cn/h.7U34m1o?tk=nwVyfy8Gsg1 CZ005 「我在闲鱼发布了【富士一次性胶片机，采用日版SIMPLE ACE，复装独家负片】」点击链接直接打开
+21   【闲鱼】https://m.tb.cn/h.7UwbcAv?tk=pjPxfyG4tML CZ005 「我在闲鱼发布了【【特价处理】徕芬LF03/SE高速吹风机 全新正品 家用宿舍】」点击链接直接打开     点过的换其他链接点，必回
+22   点击链接直接打开【闲鱼】https://m.tb.cn/h
+23   【闲鱼】https://m.tb.cn/h.7UmYsIc?tk=HF81fyGI8Ag MF287 「我在闲鱼发布了【小米扫地机器人 型号SDJQR01RR】」点击链接直接打开
+24   【闲鱼】https://m.tb.cn/h.7UcLFIt?tk=1PZufyGvOEE MF278 「我在闲鱼发布了【疯狂动物城狐狸尼克手办 3D打印可定制 桌面摆件公仔 送礼收】」点击链接直接打开
+25   【闲鱼】https://m.tb.cn/h.7Um4itc?tk=YtV0fyGDc8M CZ001 「我在闲鱼发布了【【浪浪山打工人的小治愈】浪浪山小妖怪电影盲盒来袭！整端6个不】」点击链接直接打开
+26   【闲鱼】https://m.tb.cn/h.7UwqGpw?tk=h0BwfyGxdjK CZ225 「我在闲鱼发布了【原价498元【原始人同厂捡漏超大露营车车】全新户外露营车可折】」点击链接直接打开
+27   【闲鱼】https://m.tb.cn/h.75HfUoU?tk=5gxxfyujlMP HU006 「我在闲鱼发布了【【飞剑纯钛礼盒｜一份会随身携带的惦念】】」点击链接直接打开
+28   【闲鱼】https://m.tb.cn/h.75Hgtqt?tk=41eMfyu9nJc CZ356 「我在闲鱼发布了【【全新包邮】6L大容量免翻面空气炸锅】」#小程序://闲鱼/na1PBHVb7gjD4xI点击链接直接打开
+29   【闲鱼】https://m.tb.cn/h.75HP0oK?tk=JaT0fyuqRLw CZ005 「我在闲鱼发布了【【倒闭捡漏】全新包邮美容院倒闭还剩12个捡漏价极萌Jmoon】」点击链接直接打开
+30   【闲鱼】https://m.tb.cn/h.7U2nvMa?tk=Fd68fyFFaiT CZ007 「我在闲鱼发布了【【中号柴火炉降价甩卖】【53.9包邮】户外便携野炊露营烧烤取】」点击链接直接打开
+31   【闲鱼】https://m.tb.cn/h.7UxL9yY?tk=fhLQfyFwaTU CZ007 「我在闲鱼发布了【【清库甩卖】纯钛茶具套便携旅游纯钛茶具套旅游户外露营茶具套双】」点击链接直接打开
+32   【闲鱼】https://m.tb.cn/h.7Un383O?tk=pIOafyFDiyk HU287 「我在闲鱼发布了【网红月亮椅户外可折叠 人体工学靠背 露营野餐钓鱼轻便收纳躺椅】」点击链接直接打开
+33   【闲鱼】https://m.tb.cn/h.7UxrCv4?tk=1O7dfyFCpbP CZ009 「我在闲鱼发布了【【清仓处理】摩飞折叠暖菜板饭菜保温板家用暖菜垫年会奖品多功能】」点击链接直接打开
+34   【闲鱼】https://m.tb.cn/h.7UnjE7S?tk=fHtsfyv1VIy tG-#22&gt;lD 「我在闲鱼发布了【【正品现货】TOPTOY 迪士尼疯狂动物城 2 新旅程系列手】」点击链接直接打开
+35   【闲鱼】https://m.tb.cn/h.7Ud3aHA?tk=NTsWfyv7hpq CZ028 「我在闲鱼发布了【正品疯狂动物城2城市居民盲盒名创优品迪士尼搪胶毛绒玩偶尼克】」点击链接直接打开
+36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>36   【闲鱼】https://m.tb.cn/h.75GzlrS?tk=JiJjfyEdcTg MF168 「我在闲鱼发布了【#冬季暖暖宅家】」点击链接直接打开
+37   【闲鱼】https://m.tb.cn/h.75uiSDF?tk=jQJgfyEPaVF HU108 「我在闲鱼发布了【万利达养生壶  带滤网 家用恒温 2L大容量 多功能烧水泡茶】」点击链接直接打开
+38   【闲鱼】https://m.tb.cn/h.75uR29Z?tk=9mgxfyEOduz CZ225 「我在闲鱼发布了【荣事达（Royalstar）电炒锅 智能电煮锅 电火锅  家】」点击链接直接打开
+39   【闲鱼】https://m.tb.cn/h.7UMxCUm?tk=DFvQfyElOJG CA381 「我在闲鱼发布了【康佳（KONKA）冲牙器 水牙线 便携式 洁牙齿缝 正畸专用】」点击链接直接打开
+40   【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UWrMNX?tk=6dYqfywa1hB MF278 「我在闲鱼发布了【【哭娃度假系列全新未拆】CRYBABY Vacation M】」点击链接直接打开</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L41"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>当前30人参加群接龙，仅展示最新的5条</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" sqref="L2:L13" type="list">
+    <dataValidation allowBlank="false" sqref="L2:L40" type="list">
       <formula1>"关闭表单分享"</formula1>
     </dataValidation>
   </dataValidations>
